--- a/note/BIF.xlsx
+++ b/note/BIF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C652A9D9-E89B-4D2F-B2A2-401226F48BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A12C0-B2FD-45FB-8886-B9B9E42F420A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49917397-10C3-495F-B16B-C0994EB31A8D}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
   <si>
     <t>函数</t>
   </si>
@@ -424,6 +418,27 @@
   </si>
   <si>
     <t>https://fishc.com.cn/thread-175576-1-1.html</t>
+  </si>
+  <si>
+    <t>set()</t>
+  </si>
+  <si>
+    <t>set()用于确保列表/词典/元组没有重复的元素</t>
+  </si>
+  <si>
+    <t>set()通常用于列表/词典/元组，它不会改变其顺序，但会删除其中重复的元素</t>
+  </si>
+  <si>
+    <t>set(s)</t>
+  </si>
+  <si>
+    <t>制定要进行操作的参数（列表/词典/元组）</t>
+  </si>
+  <si>
+    <t>返回经删除重复元素的参数</t>
+  </si>
+  <si>
+    <t>待编写</t>
   </si>
 </sst>
 </file>
@@ -549,43 +564,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,13 +606,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06062FF0-0FBC-4B34-98FB-AA01C51E3545}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -953,10 +968,10 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
@@ -965,16 +980,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -983,38 +998,38 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1023,32 +1038,32 @@
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1061,84 +1076,84 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1167,16 +1182,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1188,15 +1203,15 @@
       <c r="G13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1235,16 +1250,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1253,40 +1268,40 @@
       <c r="F16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1295,26 +1310,26 @@
       <c r="F18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -1326,11 +1341,11 @@
       <c r="C20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="2" t="s">
         <v>93</v>
       </c>
@@ -1339,16 +1354,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1357,42 +1372,42 @@
       <c r="F21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -1427,7 +1442,7 @@
       <c r="B25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1453,7 +1468,7 @@
       <c r="B26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1468,17 +1483,58 @@
       <c r="G26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="10" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C7:D11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H2:H3"/>
@@ -1495,26 +1551,11 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C7:D11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://fishc.com.cn/thread-163478-1-1.html" xr:uid="{101E916A-318C-4A3E-8642-4A35A442879D}"/>

--- a/note/BIF.xlsx
+++ b/note/BIF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A12C0-B2FD-45FB-8886-B9B9E42F420A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0DEEF-A05F-43BB-942F-D692E77E5FB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49917397-10C3-495F-B16B-C0994EB31A8D}"/>
+    <workbookView minimized="1" xWindow="3915" yWindow="2040" windowWidth="21600" windowHeight="12735" xr2:uid="{49917397-10C3-495F-B16B-C0994EB31A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
   <si>
     <t>函数</t>
   </si>
@@ -439,13 +439,40 @@
   </si>
   <si>
     <t>待编写</t>
+  </si>
+  <si>
+    <t>format()</t>
+  </si>
+  <si>
+    <t>format()函数用于字符串的格式化</t>
+  </si>
+  <si>
+    <r>
+      <t>format()方法可以非常方便地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>连接不同类型的变量或内容，如果需要输出大括号，采用{{表示{，}}表示}</t>
+    </r>
+  </si>
+  <si>
+    <t>[[fill]align][sign][#][0][width][grouping_option][.precision][type]</t>
+  </si>
+  <si>
+    <t>返回一个新的字符串，参数从0 开始编号</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/i_chaoren/article/details/77922939?utm_medium=distribute.pc_relevant.none-task-blog-BlogCommendFromMachineLearnPai2-1.control&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-BlogCommendFromMachineLearnPai2-1.control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +515,17 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -541,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,13 +611,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,9 +639,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,10 +659,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,26 +983,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06062FF0-0FBC-4B34-98FB-AA01C51E3545}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="135.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="85.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="135.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="85.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="98" style="1" customWidth="1"/>
-    <col min="8" max="8" width="47.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="47.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -968,10 +1015,10 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
@@ -979,7 +1026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1001,25 +1048,25 @@
       <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="13"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1076,7 @@
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1041,29 +1088,29 @@
       <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="21"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1073,9 +1120,9 @@
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
@@ -1095,67 +1142,67 @@
       <c r="G7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="13"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -1181,7 +1228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
@@ -1203,15 +1250,15 @@
       <c r="G13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1221,9 +1268,9 @@
       <c r="G14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -1249,7 +1296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>71</v>
       </c>
@@ -1271,27 +1318,27 @@
       <c r="G16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="13"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>81</v>
       </c>
@@ -1313,25 +1360,25 @@
       <c r="G18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>88</v>
       </c>
@@ -1341,11 +1388,11 @@
       <c r="C20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="2" t="s">
         <v>93</v>
       </c>
@@ -1353,7 +1400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>96</v>
       </c>
@@ -1375,41 +1422,41 @@
       <c r="G21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -1431,11 +1478,11 @@
       <c r="G24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>115</v>
       </c>
@@ -1461,7 +1508,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>123</v>
       </c>
@@ -1487,54 +1534,59 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5">
+      <c r="A28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C7:D11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H2:H3"/>
@@ -1551,11 +1603,26 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C7:D11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://fishc.com.cn/thread-163478-1-1.html" xr:uid="{101E916A-318C-4A3E-8642-4A35A442879D}"/>
@@ -1563,8 +1630,11 @@
     <hyperlink ref="H2" r:id="rId3" xr:uid="{71C4F9CD-B4F4-4422-B7EE-B76CB6BDDCA0}"/>
     <hyperlink ref="H25" r:id="rId4" xr:uid="{2C2D5C94-87DD-4212-B45D-82CC9C934980}"/>
     <hyperlink ref="H26" r:id="rId5" xr:uid="{4E683DAB-46E7-4352-B437-278AC78F9768}"/>
+    <hyperlink ref="H16" r:id="rId6" xr:uid="{61F81892-778E-488A-877D-94F5F1686BA7}"/>
+    <hyperlink ref="H18" r:id="rId7" xr:uid="{BDF36E29-807E-478D-BBC3-A3FEDA00CC7B}"/>
+    <hyperlink ref="H21" r:id="rId8" xr:uid="{0A8E552C-B547-4224-8F67-988084B73846}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>